--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2022/ifoCAst_error_tables_full_first_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2022/ifoCAst_error_tables_full_first_since_2022_GVA.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1745177015411853</v>
+        <v>0.1719895283108919</v>
       </c>
       <c r="C3">
-        <v>0.7125657433403206</v>
+        <v>0.6769134546776546</v>
       </c>
       <c r="D3">
-        <v>0.8223404025322042</v>
+        <v>0.7726047750576256</v>
       </c>
       <c r="E3">
-        <v>0.9068298641598678</v>
+        <v>0.8789793939892024</v>
       </c>
       <c r="F3">
-        <v>0.8948639824726659</v>
+        <v>0.8665135235198593</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04517624261016202</v>
+        <v>0.09629569437071235</v>
       </c>
       <c r="C4">
-        <v>0.6914880599300408</v>
+        <v>0.6864064840975582</v>
       </c>
       <c r="D4">
-        <v>0.7192409651892862</v>
+        <v>0.6922636965734948</v>
       </c>
       <c r="E4">
-        <v>0.8480807539316561</v>
+        <v>0.8320238557718732</v>
       </c>
       <c r="F4">
-        <v>0.8571422034779206</v>
+        <v>0.8355647251700326</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
